--- a/data/pca/factorExposure/factorExposure_2016-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01578470594406494</v>
+        <v>-0.01446727030796963</v>
       </c>
       <c r="C2">
-        <v>0.03942433321475002</v>
+        <v>-0.04102544623843107</v>
       </c>
       <c r="D2">
-        <v>0.03055816020593522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03267176644881872</v>
+      </c>
+      <c r="E2">
+        <v>0.05424422230295193</v>
+      </c>
+      <c r="F2">
+        <v>-0.01586099041169276</v>
+      </c>
+      <c r="G2">
+        <v>-0.1009676711546132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.064166283012874</v>
+        <v>-0.03614226782556117</v>
       </c>
       <c r="C3">
-        <v>0.1029762152563959</v>
+        <v>-0.08982123242963562</v>
       </c>
       <c r="D3">
-        <v>0.01952249578132857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01937156309795023</v>
+      </c>
+      <c r="E3">
+        <v>0.1006136550370075</v>
+      </c>
+      <c r="F3">
+        <v>-0.02542901784675683</v>
+      </c>
+      <c r="G3">
+        <v>-0.1039813132591533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06551176036539358</v>
+        <v>-0.05641557576057587</v>
       </c>
       <c r="C4">
-        <v>0.06174998646532055</v>
+        <v>-0.05916737342559483</v>
       </c>
       <c r="D4">
-        <v>0.0254135270658673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02739262677083259</v>
+      </c>
+      <c r="E4">
+        <v>0.05364506904247392</v>
+      </c>
+      <c r="F4">
+        <v>-0.006913357847280579</v>
+      </c>
+      <c r="G4">
+        <v>-0.0935764408215355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02369913138036774</v>
+        <v>-0.03450872774140423</v>
       </c>
       <c r="C6">
-        <v>0.05306282335661275</v>
+        <v>-0.0398668695457139</v>
       </c>
       <c r="D6">
-        <v>0.02155969235934802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02066768470013756</v>
+      </c>
+      <c r="E6">
+        <v>0.06273710974124641</v>
+      </c>
+      <c r="F6">
+        <v>-0.00990883197206277</v>
+      </c>
+      <c r="G6">
+        <v>-0.08494742991070428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01903804906097592</v>
+        <v>-0.02071655958732588</v>
       </c>
       <c r="C7">
-        <v>0.04355031940024886</v>
+        <v>-0.03546659110879402</v>
       </c>
       <c r="D7">
-        <v>0.01763081287635235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01629687143335782</v>
+      </c>
+      <c r="E7">
+        <v>0.02918413282479978</v>
+      </c>
+      <c r="F7">
+        <v>0.001694918955775446</v>
+      </c>
+      <c r="G7">
+        <v>-0.1236294873095136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002076103116467605</v>
+        <v>-0.00498541636343408</v>
       </c>
       <c r="C8">
-        <v>0.01019457982786666</v>
+        <v>-0.01978777581443695</v>
       </c>
       <c r="D8">
-        <v>0.004069019814497012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.005050718523893104</v>
+      </c>
+      <c r="E8">
+        <v>0.03689996688192541</v>
+      </c>
+      <c r="F8">
+        <v>-0.005950859394740985</v>
+      </c>
+      <c r="G8">
+        <v>-0.06679946104018253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02908028808835711</v>
+        <v>-0.03504527796992427</v>
       </c>
       <c r="C9">
-        <v>0.04230866385620605</v>
+        <v>-0.04515256820484279</v>
       </c>
       <c r="D9">
-        <v>0.01793193300961971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01816293992961238</v>
+      </c>
+      <c r="E9">
+        <v>0.03813652431946501</v>
+      </c>
+      <c r="F9">
+        <v>-0.00488062396602548</v>
+      </c>
+      <c r="G9">
+        <v>-0.09934938800465089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07889960903567349</v>
+        <v>-0.09215172338419071</v>
       </c>
       <c r="C10">
-        <v>-0.1887184359095416</v>
+        <v>0.1947988718377528</v>
       </c>
       <c r="D10">
-        <v>-0.05121339224739955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01485643279387479</v>
+      </c>
+      <c r="E10">
+        <v>0.01653376564760662</v>
+      </c>
+      <c r="F10">
+        <v>-0.0290410665810942</v>
+      </c>
+      <c r="G10">
+        <v>-0.05204130195254426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03925680802721464</v>
+        <v>-0.03638485371080793</v>
       </c>
       <c r="C11">
-        <v>0.05464755504167629</v>
+        <v>-0.05095490211895603</v>
       </c>
       <c r="D11">
-        <v>0.005398135041483144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003291914178547947</v>
+      </c>
+      <c r="E11">
+        <v>0.02775506294757397</v>
+      </c>
+      <c r="F11">
+        <v>0.01393294135540411</v>
+      </c>
+      <c r="G11">
+        <v>-0.07468867564230736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03710687033908876</v>
+        <v>-0.03733321311839211</v>
       </c>
       <c r="C12">
-        <v>0.0442920431000614</v>
+        <v>-0.04618141283447209</v>
       </c>
       <c r="D12">
-        <v>0.008992562164004413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007519911301169057</v>
+      </c>
+      <c r="E12">
+        <v>0.01814569882960124</v>
+      </c>
+      <c r="F12">
+        <v>0.004478000632821795</v>
+      </c>
+      <c r="G12">
+        <v>-0.07406326307137846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009115309855672717</v>
+        <v>-0.01118864915160744</v>
       </c>
       <c r="C13">
-        <v>0.03313308734519092</v>
+        <v>-0.03590501237747633</v>
       </c>
       <c r="D13">
-        <v>0.02780429252894433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03068626387820867</v>
+      </c>
+      <c r="E13">
+        <v>0.06223826599009247</v>
+      </c>
+      <c r="F13">
+        <v>-0.01981976724446038</v>
+      </c>
+      <c r="G13">
+        <v>-0.1312643516637151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006713347109587602</v>
+        <v>-0.008706206094203743</v>
       </c>
       <c r="C14">
-        <v>0.02738828441134558</v>
+        <v>-0.02687825848407067</v>
       </c>
       <c r="D14">
-        <v>0.0119080156186764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01234925574461737</v>
+      </c>
+      <c r="E14">
+        <v>0.02335014870361013</v>
+      </c>
+      <c r="F14">
+        <v>-0.007317372987007625</v>
+      </c>
+      <c r="G14">
+        <v>-0.1146908140554767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03374053046380442</v>
+        <v>-0.03514029800188748</v>
       </c>
       <c r="C16">
-        <v>0.04127333077125205</v>
+        <v>-0.04401317205407751</v>
       </c>
       <c r="D16">
-        <v>0.003780721150199785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002940440551535859</v>
+      </c>
+      <c r="E16">
+        <v>0.02400378879251892</v>
+      </c>
+      <c r="F16">
+        <v>-0.003422865686315885</v>
+      </c>
+      <c r="G16">
+        <v>-0.08107240632599366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02895061153012207</v>
+        <v>-0.01769711784160274</v>
       </c>
       <c r="C19">
-        <v>0.05599021586369882</v>
+        <v>-0.0473352613518424</v>
       </c>
       <c r="D19">
-        <v>0.01990671059620583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02413158646024743</v>
+      </c>
+      <c r="E19">
+        <v>0.1022236376586404</v>
+      </c>
+      <c r="F19">
+        <v>-0.01947217769791545</v>
+      </c>
+      <c r="G19">
+        <v>-0.1341666583189098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01228863289304813</v>
+        <v>-0.01607382414120881</v>
       </c>
       <c r="C20">
-        <v>0.04172594484709844</v>
+        <v>-0.03644645272144112</v>
       </c>
       <c r="D20">
-        <v>0.01751966980174424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01656896314451517</v>
+      </c>
+      <c r="E20">
+        <v>0.04693338382321399</v>
+      </c>
+      <c r="F20">
+        <v>-0.03034767246259323</v>
+      </c>
+      <c r="G20">
+        <v>-0.1063865482903498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005355884489478916</v>
+        <v>-0.00629490918126868</v>
       </c>
       <c r="C21">
-        <v>0.03442793664699674</v>
+        <v>-0.03598872957115081</v>
       </c>
       <c r="D21">
-        <v>0.01988955743931159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02314303705192618</v>
+      </c>
+      <c r="E21">
+        <v>0.06667934339981101</v>
+      </c>
+      <c r="F21">
+        <v>-0.02112396326375154</v>
+      </c>
+      <c r="G21">
+        <v>-0.1506413569686174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002423236822169919</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01299374044489788</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00361908153696361</v>
+      </c>
+      <c r="E22">
+        <v>0.02462527197156215</v>
+      </c>
+      <c r="F22">
+        <v>0.001852780157540539</v>
+      </c>
+      <c r="G22">
+        <v>-0.01127553390168194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002433736858846209</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01296541060268169</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003599094639960664</v>
+      </c>
+      <c r="E23">
+        <v>0.02444576774102807</v>
+      </c>
+      <c r="F23">
+        <v>0.001550592780203252</v>
+      </c>
+      <c r="G23">
+        <v>-0.01110359739840989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02722685819035406</v>
+        <v>-0.03099956100447797</v>
       </c>
       <c r="C24">
-        <v>0.04761402221142284</v>
+        <v>-0.049667067962359</v>
       </c>
       <c r="D24">
-        <v>0.01056765906666203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008103995905273106</v>
+      </c>
+      <c r="E24">
+        <v>0.02244792162018986</v>
+      </c>
+      <c r="F24">
+        <v>0.005921311059722743</v>
+      </c>
+      <c r="G24">
+        <v>-0.08121110628473641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04620358181696847</v>
+        <v>-0.04330749013572657</v>
       </c>
       <c r="C25">
-        <v>0.052850134283498</v>
+        <v>-0.05560486275471693</v>
       </c>
       <c r="D25">
-        <v>0.01422600945594023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0121739704360592</v>
+      </c>
+      <c r="E25">
+        <v>0.01528041960495608</v>
+      </c>
+      <c r="F25">
+        <v>0.005360822182078092</v>
+      </c>
+      <c r="G25">
+        <v>-0.08881822539448597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004411930680777482</v>
+        <v>-0.014894758653462</v>
       </c>
       <c r="C26">
-        <v>0.008068391527823456</v>
+        <v>-0.009911149448112557</v>
       </c>
       <c r="D26">
-        <v>0.02372151371065384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02498091210396291</v>
+      </c>
+      <c r="E26">
+        <v>0.01725384637465002</v>
+      </c>
+      <c r="F26">
+        <v>-0.006934692064683876</v>
+      </c>
+      <c r="G26">
+        <v>-0.08430427555269782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0955083634581136</v>
+        <v>-0.1234823974750419</v>
       </c>
       <c r="C28">
-        <v>-0.2200050078222359</v>
+        <v>0.2462548978300485</v>
       </c>
       <c r="D28">
-        <v>-0.04530653069392145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006346202858753276</v>
+      </c>
+      <c r="E28">
+        <v>-0.001470721063352335</v>
+      </c>
+      <c r="F28">
+        <v>-0.03200817622807949</v>
+      </c>
+      <c r="G28">
+        <v>-0.05430048046630507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01170471736426642</v>
+        <v>-0.008033045757739941</v>
       </c>
       <c r="C29">
-        <v>0.01962945982545071</v>
+        <v>-0.02209262414585436</v>
       </c>
       <c r="D29">
-        <v>0.009359024705741502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01098369179894049</v>
+      </c>
+      <c r="E29">
+        <v>0.01443935754254846</v>
+      </c>
+      <c r="F29">
+        <v>-0.01113579658667677</v>
+      </c>
+      <c r="G29">
+        <v>-0.1037819872472654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03789222953338919</v>
+        <v>-0.03946032268517202</v>
       </c>
       <c r="C30">
-        <v>0.07229637184474913</v>
+        <v>-0.06402423373810484</v>
       </c>
       <c r="D30">
-        <v>0.03297889065110712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03320844483297818</v>
+      </c>
+      <c r="E30">
+        <v>0.0856140039256222</v>
+      </c>
+      <c r="F30">
+        <v>0.01810328711427731</v>
+      </c>
+      <c r="G30">
+        <v>-0.117506935296902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04214282392392821</v>
+        <v>-0.05645374340328054</v>
       </c>
       <c r="C31">
-        <v>0.0246478293126017</v>
+        <v>-0.04051397837854124</v>
       </c>
       <c r="D31">
-        <v>0.004083166872508079</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004490801230519363</v>
+      </c>
+      <c r="E31">
+        <v>0.001451049324927109</v>
+      </c>
+      <c r="F31">
+        <v>-0.03514855589182485</v>
+      </c>
+      <c r="G31">
+        <v>-0.09587127099317701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.009026961647712646</v>
+        <v>-0.001586263855427697</v>
       </c>
       <c r="C32">
-        <v>0.03830595234451008</v>
+        <v>-0.02414089434938371</v>
       </c>
       <c r="D32">
-        <v>-0.00100586834295925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0005737251777868119</v>
+      </c>
+      <c r="E32">
+        <v>0.04679902329569095</v>
+      </c>
+      <c r="F32">
+        <v>0.01212651494901299</v>
+      </c>
+      <c r="G32">
+        <v>-0.07690590465692823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02957419267071876</v>
+        <v>-0.02671387286310324</v>
       </c>
       <c r="C33">
-        <v>0.0544767146636627</v>
+        <v>-0.04634822339802675</v>
       </c>
       <c r="D33">
-        <v>0.0177682221244345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01959698332304461</v>
+      </c>
+      <c r="E33">
+        <v>0.07061638160993126</v>
+      </c>
+      <c r="F33">
+        <v>-0.003139271542808344</v>
+      </c>
+      <c r="G33">
+        <v>-0.1568290077597254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05251089682640134</v>
+        <v>-0.04252504659017059</v>
       </c>
       <c r="C34">
-        <v>0.05379227496915365</v>
+        <v>-0.05999377983131005</v>
       </c>
       <c r="D34">
-        <v>-0.002875247521587376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003394793438843073</v>
+      </c>
+      <c r="E34">
+        <v>0.02236074368325236</v>
+      </c>
+      <c r="F34">
+        <v>0.01950065946198861</v>
+      </c>
+      <c r="G34">
+        <v>-0.07849427554047919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008127946477451957</v>
+        <v>-0.01551524541014266</v>
       </c>
       <c r="C36">
-        <v>0.003783978067690894</v>
+        <v>-0.005916158117143672</v>
       </c>
       <c r="D36">
-        <v>0.01105514190001781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01423449606879399</v>
+      </c>
+      <c r="E36">
+        <v>0.02123659639411326</v>
+      </c>
+      <c r="F36">
+        <v>-0.01014670323074152</v>
+      </c>
+      <c r="G36">
+        <v>-0.0963573203621742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03512136529561785</v>
+        <v>-0.03132656977981312</v>
       </c>
       <c r="C38">
-        <v>0.02350041442606649</v>
+        <v>-0.02251291908892425</v>
       </c>
       <c r="D38">
-        <v>-0.008505716197850188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005921053248702666</v>
+      </c>
+      <c r="E38">
+        <v>0.02193490607591306</v>
+      </c>
+      <c r="F38">
+        <v>-0.01492078347740499</v>
+      </c>
+      <c r="G38">
+        <v>-0.09112048741735765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0357901636539783</v>
+        <v>-0.03700341455772042</v>
       </c>
       <c r="C39">
-        <v>0.08444734107236108</v>
+        <v>-0.0752488755908416</v>
       </c>
       <c r="D39">
-        <v>0.01978162914828596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01419180238246953</v>
+      </c>
+      <c r="E39">
+        <v>0.04437197125602602</v>
+      </c>
+      <c r="F39">
+        <v>0.01577702244940522</v>
+      </c>
+      <c r="G39">
+        <v>-0.09064628353208788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01698042945290722</v>
+        <v>-0.01647888555718595</v>
       </c>
       <c r="C40">
-        <v>0.02532109257843471</v>
+        <v>-0.03512666747508277</v>
       </c>
       <c r="D40">
-        <v>0.01364567981940625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01630044385205224</v>
+      </c>
+      <c r="E40">
+        <v>0.03460587393439866</v>
+      </c>
+      <c r="F40">
+        <v>-0.03053593716781112</v>
+      </c>
+      <c r="G40">
+        <v>-0.1165850295610312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01024045431507033</v>
+        <v>-0.01863744062833184</v>
       </c>
       <c r="C41">
-        <v>-0.001714511451516383</v>
+        <v>0.002231332846277593</v>
       </c>
       <c r="D41">
-        <v>0.00225732747292289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006088237745576067</v>
+      </c>
+      <c r="E41">
+        <v>0.01763862354756173</v>
+      </c>
+      <c r="F41">
+        <v>-0.0158814294490724</v>
+      </c>
+      <c r="G41">
+        <v>-0.08953050479572094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01362715264096222</v>
+        <v>-0.005363449066089179</v>
       </c>
       <c r="C42">
-        <v>0.03145569373446187</v>
+        <v>-0.02430217545758738</v>
       </c>
       <c r="D42">
-        <v>0.09268336748798056</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08307949133492426</v>
+      </c>
+      <c r="E42">
+        <v>-0.01213426580104068</v>
+      </c>
+      <c r="F42">
+        <v>-0.02792572399662011</v>
+      </c>
+      <c r="G42">
+        <v>0.02374094286916374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02975853634532576</v>
+        <v>-0.03330997294047634</v>
       </c>
       <c r="C43">
-        <v>0.009202519469095656</v>
+        <v>-0.01061547816848318</v>
       </c>
       <c r="D43">
-        <v>0.00212519751231861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007763220358964565</v>
+      </c>
+      <c r="E43">
+        <v>0.03585415029511431</v>
+      </c>
+      <c r="F43">
+        <v>-0.01376149088030549</v>
+      </c>
+      <c r="G43">
+        <v>-0.1154950320321085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01995743346182767</v>
+        <v>-0.01487144935468134</v>
       </c>
       <c r="C44">
-        <v>0.05413129680856466</v>
+        <v>-0.05125458582648469</v>
       </c>
       <c r="D44">
-        <v>0.01062976093709698</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009581391677790888</v>
+      </c>
+      <c r="E44">
+        <v>0.04232002092091895</v>
+      </c>
+      <c r="F44">
+        <v>-0.0191855367923691</v>
+      </c>
+      <c r="G44">
+        <v>-0.1184595033492707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.000946848879666723</v>
+        <v>-0.01013797263731397</v>
       </c>
       <c r="C46">
-        <v>0.0101222761319652</v>
+        <v>-0.01701295025982728</v>
       </c>
       <c r="D46">
-        <v>0.01288893431716928</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01392667417996026</v>
+      </c>
+      <c r="E46">
+        <v>0.00686301151015855</v>
+      </c>
+      <c r="F46">
+        <v>-0.01689364923649294</v>
+      </c>
+      <c r="G46">
+        <v>-0.1127551805963095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07374453073737189</v>
+        <v>-0.08551770523043849</v>
       </c>
       <c r="C47">
-        <v>0.06465438901035807</v>
+        <v>-0.07140749561627564</v>
       </c>
       <c r="D47">
-        <v>0.0002674987690412914</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004946378292234563</v>
+      </c>
+      <c r="E47">
+        <v>-0.007524875556064563</v>
+      </c>
+      <c r="F47">
+        <v>-0.04318081421268636</v>
+      </c>
+      <c r="G47">
+        <v>-0.08861857154669135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01181181712332539</v>
+        <v>-0.01748542446938669</v>
       </c>
       <c r="C48">
-        <v>0.01065456739365469</v>
+        <v>-0.01217049919105697</v>
       </c>
       <c r="D48">
-        <v>0.001506341209252915</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003864929429775443</v>
+      </c>
+      <c r="E48">
+        <v>0.01568450425829538</v>
+      </c>
+      <c r="F48">
+        <v>-0.02184051272160851</v>
+      </c>
+      <c r="G48">
+        <v>-0.1084458753873811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07881405405302966</v>
+        <v>-0.07883591170262724</v>
       </c>
       <c r="C50">
-        <v>0.05994597486082087</v>
+        <v>-0.06743596699440321</v>
       </c>
       <c r="D50">
-        <v>-6.783778257557613e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001229774504892408</v>
+      </c>
+      <c r="E50">
+        <v>-0.0005034095520490531</v>
+      </c>
+      <c r="F50">
+        <v>-0.04216184868264774</v>
+      </c>
+      <c r="G50">
+        <v>-0.0996544287359869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01866479245826106</v>
+        <v>-0.01218312109962902</v>
       </c>
       <c r="C51">
-        <v>0.03901271644566084</v>
+        <v>-0.031330170172022</v>
       </c>
       <c r="D51">
-        <v>0.01170224971611598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01270511191063734</v>
+      </c>
+      <c r="E51">
+        <v>0.04154989449659279</v>
+      </c>
+      <c r="F51">
+        <v>0.008184014693925878</v>
+      </c>
+      <c r="G51">
+        <v>-0.1055598693874433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.101348890680136</v>
+        <v>-0.08738111751766334</v>
       </c>
       <c r="C53">
-        <v>0.07301775368704924</v>
+        <v>-0.08482592323307081</v>
       </c>
       <c r="D53">
-        <v>-0.0007183954588457161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003804975332637925</v>
+      </c>
+      <c r="E53">
+        <v>-0.02834744488989529</v>
+      </c>
+      <c r="F53">
+        <v>-0.04625739521383167</v>
+      </c>
+      <c r="G53">
+        <v>-0.09135968955669371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02706335135593467</v>
+        <v>-0.03180464361212754</v>
       </c>
       <c r="C54">
-        <v>0.002770005510285141</v>
+        <v>-0.01680160364764979</v>
       </c>
       <c r="D54">
-        <v>-0.005006986708901326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001085355755927094</v>
+      </c>
+      <c r="E54">
+        <v>0.0292017958449064</v>
+      </c>
+      <c r="F54">
+        <v>-0.01361286532813547</v>
+      </c>
+      <c r="G54">
+        <v>-0.1135986535568106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07605758690903883</v>
+        <v>-0.08188894692040373</v>
       </c>
       <c r="C55">
-        <v>0.06268795863604326</v>
+        <v>-0.06864153984755737</v>
       </c>
       <c r="D55">
-        <v>-9.514803645723409e-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005967540454510693</v>
+      </c>
+      <c r="E55">
+        <v>-0.03231771792773305</v>
+      </c>
+      <c r="F55">
+        <v>-0.04650826163076657</v>
+      </c>
+      <c r="G55">
+        <v>-0.06851046399896339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1524567514482946</v>
+        <v>-0.1439832492440819</v>
       </c>
       <c r="C56">
-        <v>0.09199048193875657</v>
+        <v>-0.1035762236946732</v>
       </c>
       <c r="D56">
-        <v>-0.009286937326267022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01333564827293501</v>
+      </c>
+      <c r="E56">
+        <v>-0.03912090409228872</v>
+      </c>
+      <c r="F56">
+        <v>-0.05705082162956206</v>
+      </c>
+      <c r="G56">
+        <v>-0.05551219284250497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009754812331047235</v>
+        <v>-0.003678444686816026</v>
       </c>
       <c r="C57">
-        <v>0.003468574603221319</v>
+        <v>-0.003090347445142987</v>
       </c>
       <c r="D57">
-        <v>0.02168474590022617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02304873404766246</v>
+      </c>
+      <c r="E57">
+        <v>0.02453729549377609</v>
+      </c>
+      <c r="F57">
+        <v>-0.003047315414936942</v>
+      </c>
+      <c r="G57">
+        <v>-0.01102486166339796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0485058433719664</v>
+        <v>-0.03796962775634679</v>
       </c>
       <c r="C58">
-        <v>0.05874177657445498</v>
+        <v>-0.03038786026131847</v>
       </c>
       <c r="D58">
-        <v>0.00340601864188313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04026425598285853</v>
+      </c>
+      <c r="E58">
+        <v>0.7136335731789072</v>
+      </c>
+      <c r="F58">
+        <v>-0.5891985290078118</v>
+      </c>
+      <c r="G58">
+        <v>0.3122319426596567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1449790470693348</v>
+        <v>-0.1474895757173435</v>
       </c>
       <c r="C59">
-        <v>-0.2172404952168186</v>
+        <v>0.2067857839127112</v>
       </c>
       <c r="D59">
-        <v>-0.05698150995680784</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.009620274321077465</v>
+      </c>
+      <c r="E59">
+        <v>0.023041085323893</v>
+      </c>
+      <c r="F59">
+        <v>-0.01437237223677002</v>
+      </c>
+      <c r="G59">
+        <v>-0.03967979672434732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3105031446544148</v>
+        <v>-0.2864587858536223</v>
       </c>
       <c r="C60">
-        <v>0.09017247629643815</v>
+        <v>-0.09144746604304746</v>
       </c>
       <c r="D60">
-        <v>-0.001373978946668508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01914598934931723</v>
+      </c>
+      <c r="E60">
+        <v>0.1324925605653008</v>
+      </c>
+      <c r="F60">
+        <v>0.3049323508113267</v>
+      </c>
+      <c r="G60">
+        <v>0.1611781369960593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03292287190632722</v>
+        <v>-0.03922023789242027</v>
       </c>
       <c r="C61">
-        <v>0.0634965324984411</v>
+        <v>-0.06232629077686786</v>
       </c>
       <c r="D61">
-        <v>0.01056996808674449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007797400220106108</v>
+      </c>
+      <c r="E61">
+        <v>0.03952647630396997</v>
+      </c>
+      <c r="F61">
+        <v>0.006200871472112375</v>
+      </c>
+      <c r="G61">
+        <v>-0.08846789585452425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01341847502364857</v>
+        <v>-0.01533546329878234</v>
       </c>
       <c r="C63">
-        <v>0.02745301268915764</v>
+        <v>-0.02650261630062621</v>
       </c>
       <c r="D63">
-        <v>0.01068141690336504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00962834172648599</v>
+      </c>
+      <c r="E63">
+        <v>0.01400438698740219</v>
+      </c>
+      <c r="F63">
+        <v>-0.01253441828239229</v>
+      </c>
+      <c r="G63">
+        <v>-0.09020333266195797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04657519327399711</v>
+        <v>-0.05203236422635785</v>
       </c>
       <c r="C64">
-        <v>0.0306954548314204</v>
+        <v>-0.04727986529137514</v>
       </c>
       <c r="D64">
-        <v>0.00541426468420788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006278318344035614</v>
+      </c>
+      <c r="E64">
+        <v>0.007902483651035097</v>
+      </c>
+      <c r="F64">
+        <v>0.002636099309186568</v>
+      </c>
+      <c r="G64">
+        <v>-0.09402653899193576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08245902521724886</v>
+        <v>-0.07130659205359051</v>
       </c>
       <c r="C65">
-        <v>0.06418125553417753</v>
+        <v>-0.04562362206520811</v>
       </c>
       <c r="D65">
-        <v>0.01731870325081793</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01973583721828344</v>
+      </c>
+      <c r="E65">
+        <v>0.06591779606752099</v>
+      </c>
+      <c r="F65">
+        <v>0.008204850378374026</v>
+      </c>
+      <c r="G65">
+        <v>-0.03873706790710434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05723061241613641</v>
+        <v>-0.04934095276405621</v>
       </c>
       <c r="C66">
-        <v>0.1238947623689062</v>
+        <v>-0.1000207749658264</v>
       </c>
       <c r="D66">
-        <v>0.02352579748318066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01510613767083636</v>
+      </c>
+      <c r="E66">
+        <v>0.06802438204677128</v>
+      </c>
+      <c r="F66">
+        <v>0.02165113784010014</v>
+      </c>
+      <c r="G66">
+        <v>-0.09395439431788172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06294046884968524</v>
+        <v>-0.05401291421745542</v>
       </c>
       <c r="C67">
-        <v>0.02623612902239887</v>
+        <v>-0.02785494522507694</v>
       </c>
       <c r="D67">
-        <v>-0.008114844196018068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005221617378463117</v>
+      </c>
+      <c r="E67">
+        <v>0.007902754490759929</v>
+      </c>
+      <c r="F67">
+        <v>-0.0101094767307937</v>
+      </c>
+      <c r="G67">
+        <v>-0.07723996555546496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1112793729892276</v>
+        <v>-0.1502539679388024</v>
       </c>
       <c r="C68">
-        <v>-0.280662933172322</v>
+        <v>0.2695657515832362</v>
       </c>
       <c r="D68">
-        <v>-0.0436737344614708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005968638434360622</v>
+      </c>
+      <c r="E68">
+        <v>-0.007118516175679875</v>
+      </c>
+      <c r="F68">
+        <v>-0.04421875188741743</v>
+      </c>
+      <c r="G68">
+        <v>-0.02639566236762505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08194697181977395</v>
+        <v>-0.0847237620921498</v>
       </c>
       <c r="C69">
-        <v>0.06027009046291222</v>
+        <v>-0.07481768863349018</v>
       </c>
       <c r="D69">
-        <v>-0.005467808518810727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008316543459524784</v>
+      </c>
+      <c r="E69">
+        <v>-0.01287516751254248</v>
+      </c>
+      <c r="F69">
+        <v>-0.01934391660593322</v>
+      </c>
+      <c r="G69">
+        <v>-0.100592003314251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1196867262582011</v>
+        <v>-0.1377031972041259</v>
       </c>
       <c r="C71">
-        <v>-0.2270685447435165</v>
+        <v>0.2366639779391473</v>
       </c>
       <c r="D71">
-        <v>-0.04751859023209883</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002310022786429621</v>
+      </c>
+      <c r="E71">
+        <v>0.02346962472027251</v>
+      </c>
+      <c r="F71">
+        <v>-0.03857414635720981</v>
+      </c>
+      <c r="G71">
+        <v>-0.06671098781902474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07170245337974415</v>
+        <v>-0.08706931352422914</v>
       </c>
       <c r="C72">
-        <v>0.06510741622828983</v>
+        <v>-0.05876084315924627</v>
       </c>
       <c r="D72">
-        <v>-0.004635220020896268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006895604149979696</v>
+      </c>
+      <c r="E72">
+        <v>0.009400037526311255</v>
+      </c>
+      <c r="F72">
+        <v>0.02417061706268295</v>
+      </c>
+      <c r="G72">
+        <v>-0.08531141755641855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4334279613474086</v>
+        <v>-0.3726089556495032</v>
       </c>
       <c r="C73">
-        <v>0.1004684033011854</v>
+        <v>-0.08273365126044648</v>
       </c>
       <c r="D73">
-        <v>-0.009076530242964762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03305859425902273</v>
+      </c>
+      <c r="E73">
+        <v>0.2860702821578103</v>
+      </c>
+      <c r="F73">
+        <v>0.5309548412990865</v>
+      </c>
+      <c r="G73">
+        <v>0.3270387035523873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1183923321336644</v>
+        <v>-0.1101581145501605</v>
       </c>
       <c r="C74">
-        <v>0.1171119259058688</v>
+        <v>-0.1017668626310168</v>
       </c>
       <c r="D74">
-        <v>0.0002403494027430886</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009765546922662145</v>
+      </c>
+      <c r="E74">
+        <v>-0.01288812608404204</v>
+      </c>
+      <c r="F74">
+        <v>-0.05893273793660767</v>
+      </c>
+      <c r="G74">
+        <v>-0.072248279548019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2607783513038692</v>
+        <v>-0.2550402927165482</v>
       </c>
       <c r="C75">
-        <v>0.1271745292796396</v>
+        <v>-0.142366566529902</v>
       </c>
       <c r="D75">
-        <v>-0.0234080218646796</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03305823868876963</v>
+      </c>
+      <c r="E75">
+        <v>-0.1019596708063504</v>
+      </c>
+      <c r="F75">
+        <v>-0.1280663807575298</v>
+      </c>
+      <c r="G75">
+        <v>-0.02377064557981183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1228270919610931</v>
+        <v>-0.1243211182238865</v>
       </c>
       <c r="C76">
-        <v>0.1061581296885663</v>
+        <v>-0.1036648693925448</v>
       </c>
       <c r="D76">
-        <v>-0.008056505718126567</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01853851543153727</v>
+      </c>
+      <c r="E76">
+        <v>-0.04200474714018919</v>
+      </c>
+      <c r="F76">
+        <v>-0.0788892267253106</v>
+      </c>
+      <c r="G76">
+        <v>-0.06640843397122499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06195357999764732</v>
+        <v>-0.06697154991983383</v>
       </c>
       <c r="C77">
-        <v>0.06112348197348027</v>
+        <v>-0.06150520309949612</v>
       </c>
       <c r="D77">
-        <v>0.01179407443497643</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01086061597452184</v>
+      </c>
+      <c r="E77">
+        <v>0.05520522127038011</v>
+      </c>
+      <c r="F77">
+        <v>-0.03715896446355856</v>
+      </c>
+      <c r="G77">
+        <v>-0.1080102745708628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04883874380817734</v>
+        <v>-0.04187647264862199</v>
       </c>
       <c r="C78">
-        <v>0.05309788096502688</v>
+        <v>-0.05507635221609893</v>
       </c>
       <c r="D78">
-        <v>0.007319276591194222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01019121497700542</v>
+      </c>
+      <c r="E78">
+        <v>0.05718882539386053</v>
+      </c>
+      <c r="F78">
+        <v>0.02383878978806579</v>
+      </c>
+      <c r="G78">
+        <v>-0.09627800213189892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0004158885540889191</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001663482528738073</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0009431268718912342</v>
+      </c>
+      <c r="E79">
+        <v>0.007632289174822816</v>
+      </c>
+      <c r="F79">
+        <v>-0.002506340550627251</v>
+      </c>
+      <c r="G79">
+        <v>-0.009116880796158907</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05760696799306893</v>
+        <v>-0.04057550045892383</v>
       </c>
       <c r="C80">
-        <v>0.06316443776099996</v>
+        <v>-0.04608528273531465</v>
       </c>
       <c r="D80">
-        <v>0.01624923239160834</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01521011838824859</v>
+      </c>
+      <c r="E80">
+        <v>0.04127334301855388</v>
+      </c>
+      <c r="F80">
+        <v>-0.002494354761938489</v>
+      </c>
+      <c r="G80">
+        <v>-0.04462007012430523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1382245951549255</v>
+        <v>-0.1404588932467939</v>
       </c>
       <c r="C81">
-        <v>0.07782743862301338</v>
+        <v>-0.09232580754408229</v>
       </c>
       <c r="D81">
-        <v>-0.009538151505713023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01660069984486536</v>
+      </c>
+      <c r="E81">
+        <v>-0.06926032206375962</v>
+      </c>
+      <c r="F81">
+        <v>-0.1036236717259472</v>
+      </c>
+      <c r="G81">
+        <v>-0.04029666379729638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05230288537390557</v>
+        <v>-0.1739355525014716</v>
       </c>
       <c r="C82">
-        <v>0.03772799323339135</v>
+        <v>-0.1253408005233702</v>
       </c>
       <c r="D82">
-        <v>0.0001502760005853072</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02045449797137331</v>
+      </c>
+      <c r="E82">
+        <v>-0.1865801093606935</v>
+      </c>
+      <c r="F82">
+        <v>-0.05426148844249801</v>
+      </c>
+      <c r="G82">
+        <v>-0.03008954459004933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02995273596221414</v>
+        <v>-0.02796594548994253</v>
       </c>
       <c r="C83">
-        <v>0.0204694711983514</v>
+        <v>-0.032782061640693</v>
       </c>
       <c r="D83">
-        <v>0.004394516268959305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007819685884519222</v>
+      </c>
+      <c r="E83">
+        <v>0.03322434766055436</v>
+      </c>
+      <c r="F83">
+        <v>0.007872093200966214</v>
+      </c>
+      <c r="G83">
+        <v>-0.05863285633770625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2493835266081968</v>
+        <v>-0.2136219257364171</v>
       </c>
       <c r="C85">
-        <v>0.1294473170740319</v>
+        <v>-0.1257298954345808</v>
       </c>
       <c r="D85">
-        <v>-0.01126525564988724</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01941237389191817</v>
+      </c>
+      <c r="E85">
+        <v>-0.1066483686084851</v>
+      </c>
+      <c r="F85">
+        <v>-0.05543597875429421</v>
+      </c>
+      <c r="G85">
+        <v>0.01779347016081092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008633011454851543</v>
+        <v>-0.01125953172278923</v>
       </c>
       <c r="C86">
-        <v>0.02135992863490732</v>
+        <v>-0.02422035575272484</v>
       </c>
       <c r="D86">
-        <v>0.009417914713216451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01550803033762958</v>
+      </c>
+      <c r="E86">
+        <v>0.07740131005578946</v>
+      </c>
+      <c r="F86">
+        <v>0.01094404771490293</v>
+      </c>
+      <c r="G86">
+        <v>-0.1700236243653455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01355235248129126</v>
+        <v>-0.02033088159515594</v>
       </c>
       <c r="C87">
-        <v>0.02175935801232212</v>
+        <v>-0.01524242891849735</v>
       </c>
       <c r="D87">
-        <v>0.0102559530185023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0150158456471324</v>
+      </c>
+      <c r="E87">
+        <v>0.09894918573853703</v>
+      </c>
+      <c r="F87">
+        <v>-0.03613490014183613</v>
+      </c>
+      <c r="G87">
+        <v>-0.1083460956841163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09554866999215711</v>
+        <v>-0.08960436886373027</v>
       </c>
       <c r="C88">
-        <v>0.06060637064900019</v>
+        <v>-0.06056219771634465</v>
       </c>
       <c r="D88">
-        <v>0.02408758424564154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02351998601133408</v>
+      </c>
+      <c r="E88">
+        <v>0.01024236941322874</v>
+      </c>
+      <c r="F88">
+        <v>-0.01735955831201662</v>
+      </c>
+      <c r="G88">
+        <v>-0.1010159590380083</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2016723931339732</v>
+        <v>-0.2123657148395093</v>
       </c>
       <c r="C89">
-        <v>-0.3747493254507892</v>
+        <v>0.3710192198358708</v>
       </c>
       <c r="D89">
-        <v>-0.07079638629120132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001099886337971949</v>
+      </c>
+      <c r="E89">
+        <v>-0.02493292570583066</v>
+      </c>
+      <c r="F89">
+        <v>-0.01362379282454891</v>
+      </c>
+      <c r="G89">
+        <v>-0.08727214370172583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1809484233483104</v>
+        <v>-0.199568055186006</v>
       </c>
       <c r="C90">
-        <v>-0.3388597580835897</v>
+        <v>0.3230316465544937</v>
       </c>
       <c r="D90">
-        <v>-0.06930849505853152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004266878415117886</v>
+      </c>
+      <c r="E90">
+        <v>-0.0158889369488043</v>
+      </c>
+      <c r="F90">
+        <v>-0.05250928826564206</v>
+      </c>
+      <c r="G90">
+        <v>-0.05303621677888279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2014277582314649</v>
+        <v>-0.1908402995336763</v>
       </c>
       <c r="C91">
-        <v>0.1138819694883216</v>
+        <v>-0.1300481306640196</v>
       </c>
       <c r="D91">
-        <v>-0.01605708470929563</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02371181204253509</v>
+      </c>
+      <c r="E91">
+        <v>-0.08405645681717856</v>
+      </c>
+      <c r="F91">
+        <v>-0.1029251901257039</v>
+      </c>
+      <c r="G91">
+        <v>-0.04444331840118144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1840030472561815</v>
+        <v>-0.180530579472127</v>
       </c>
       <c r="C92">
-        <v>-0.2621924459622471</v>
+        <v>0.2756330598263805</v>
       </c>
       <c r="D92">
-        <v>-0.09374132102986915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03905941330055079</v>
+      </c>
+      <c r="E92">
+        <v>0.01094545223426202</v>
+      </c>
+      <c r="F92">
+        <v>-0.07166702745540822</v>
+      </c>
+      <c r="G92">
+        <v>-0.07829275969480289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1933937118940765</v>
+        <v>-0.2214926367569961</v>
       </c>
       <c r="C93">
-        <v>-0.3193745056628217</v>
+        <v>0.3202979839510726</v>
       </c>
       <c r="D93">
-        <v>-0.07256811620219603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01001314547410573</v>
+      </c>
+      <c r="E93">
+        <v>0.0017797464099027</v>
+      </c>
+      <c r="F93">
+        <v>-0.03507858857113012</v>
+      </c>
+      <c r="G93">
+        <v>-0.05581030542864129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2811882986511545</v>
+        <v>-0.3388000714924072</v>
       </c>
       <c r="C94">
-        <v>0.1379945931872109</v>
+        <v>-0.191975330135517</v>
       </c>
       <c r="D94">
-        <v>-0.002826815014206261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03313392776255422</v>
+      </c>
+      <c r="E94">
+        <v>-0.3925743162290454</v>
+      </c>
+      <c r="F94">
+        <v>-0.352772238121599</v>
+      </c>
+      <c r="G94">
+        <v>0.3829658703921803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.07301129494246367</v>
+        <v>-0.08112502723761598</v>
       </c>
       <c r="C95">
-        <v>0.09289436136582209</v>
+        <v>-0.08675727932046509</v>
       </c>
       <c r="D95">
-        <v>0.0003753459544885287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.006881428508643298</v>
+      </c>
+      <c r="E95">
+        <v>0.1395539109311711</v>
+      </c>
+      <c r="F95">
+        <v>0.1418472579471612</v>
+      </c>
+      <c r="G95">
+        <v>-0.08379941283831695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.208639466722912</v>
+        <v>-0.1947934439587721</v>
       </c>
       <c r="C98">
-        <v>0.04914980214178493</v>
+        <v>-0.04353142639369603</v>
       </c>
       <c r="D98">
-        <v>-0.02782775058307825</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008320066988762134</v>
+      </c>
+      <c r="E98">
+        <v>0.133357354024751</v>
+      </c>
+      <c r="F98">
+        <v>0.1936093411917914</v>
+      </c>
+      <c r="G98">
+        <v>0.06195282268648469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01153217667903471</v>
+        <v>-0.007881956013782275</v>
       </c>
       <c r="C101">
-        <v>0.01994558738019786</v>
+        <v>-0.02199572701333533</v>
       </c>
       <c r="D101">
-        <v>0.009279302723833096</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01079447044419422</v>
+      </c>
+      <c r="E101">
+        <v>0.01392273123654126</v>
+      </c>
+      <c r="F101">
+        <v>-0.01188584283920025</v>
+      </c>
+      <c r="G101">
+        <v>-0.1034241880689353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1240267621034594</v>
+        <v>-0.1234123615037313</v>
       </c>
       <c r="C102">
-        <v>0.07210035422208999</v>
+        <v>-0.09392188902433787</v>
       </c>
       <c r="D102">
-        <v>0.004870264955569226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001007963352447089</v>
+      </c>
+      <c r="E102">
+        <v>-0.05127418978074726</v>
+      </c>
+      <c r="F102">
+        <v>-0.01875367160287511</v>
+      </c>
+      <c r="G102">
+        <v>-0.01681874448246257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.09494826974827676</v>
+        <v>-0.01929491032979027</v>
       </c>
       <c r="C104">
-        <v>-0.1788548255496637</v>
+        <v>0.02724644593665829</v>
       </c>
       <c r="D104">
-        <v>0.9703151915786453</v>
+        <v>-0.9852073638786886</v>
+      </c>
+      <c r="E104">
+        <v>-0.09715872106606087</v>
+      </c>
+      <c r="F104">
+        <v>-0.01978158978879647</v>
+      </c>
+      <c r="G104">
+        <v>0.03749427083567008</v>
       </c>
     </row>
   </sheetData>
